--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GammaFiber2F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GammaFiber2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.9957089400709754</v>
       </c>
       <c r="D13">
-        <v>0.9980709158298052</v>
+        <v>0.9980709158298056</v>
       </c>
       <c r="E13">
         <v>1.000374582478758</v>
@@ -967,16 +967,16 @@
         <v>1.00115640246909</v>
       </c>
       <c r="I13">
-        <v>0.9987901497843226</v>
+        <v>0.9987901497843227</v>
       </c>
       <c r="J13">
-        <v>0.9980709158298052</v>
+        <v>0.9980709158298056</v>
       </c>
       <c r="K13">
-        <v>0.9992227491542816</v>
+        <v>0.9992227491542817</v>
       </c>
       <c r="L13">
-        <v>0.9974658446126284</v>
+        <v>0.9974658446126285</v>
       </c>
       <c r="M13">
         <v>0.9983219157632252</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.000310324385718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.186928358257481</v>
+      </c>
+      <c r="D16">
+        <v>0.6025458675910295</v>
+      </c>
+      <c r="E16">
+        <v>1.05201901139688</v>
+      </c>
+      <c r="F16">
+        <v>1.186928358257481</v>
+      </c>
+      <c r="G16">
+        <v>0.7990077946846026</v>
+      </c>
+      <c r="H16">
+        <v>1.1312998136103</v>
+      </c>
+      <c r="I16">
+        <v>1.09943573977727</v>
+      </c>
+      <c r="J16">
+        <v>0.6025458675910295</v>
+      </c>
+      <c r="K16">
+        <v>0.8272824394939546</v>
+      </c>
+      <c r="L16">
+        <v>1.007105398875717</v>
+      </c>
+      <c r="M16">
+        <v>0.9785394308862604</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.186928358257481</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
@@ -955,7 +955,7 @@
         <v>0.9957089400709754</v>
       </c>
       <c r="D13">
-        <v>0.9980709158298056</v>
+        <v>0.9980709158298052</v>
       </c>
       <c r="E13">
         <v>1.000374582478758</v>
@@ -970,16 +970,16 @@
         <v>1.00115640246909</v>
       </c>
       <c r="I13">
-        <v>0.9987901497843227</v>
+        <v>0.9987901497843226</v>
       </c>
       <c r="J13">
-        <v>0.9980709158298056</v>
+        <v>0.9980709158298052</v>
       </c>
       <c r="K13">
-        <v>0.9992227491542817</v>
+        <v>0.9992227491542816</v>
       </c>
       <c r="L13">
-        <v>0.9974658446126285</v>
+        <v>0.9974658446126284</v>
       </c>
       <c r="M13">
         <v>0.9983219157632252</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8264320000000005</v>
+        <v>1.186928358257481</v>
       </c>
       <c r="D10">
-        <v>0.4700000000000004</v>
+        <v>0.6025458675910295</v>
       </c>
       <c r="E10">
-        <v>1.295755999999998</v>
+        <v>1.05201901139688</v>
       </c>
       <c r="F10">
-        <v>0.8264320000000005</v>
+        <v>1.186928358257481</v>
       </c>
       <c r="G10">
-        <v>0.5663559999999996</v>
+        <v>0.7990077946846026</v>
       </c>
       <c r="H10">
-        <v>2.107623999999998</v>
+        <v>1.1312998136103</v>
       </c>
       <c r="I10">
-        <v>1.203604</v>
+        <v>1.09943573977727</v>
       </c>
       <c r="J10">
-        <v>0.4700000000000004</v>
+        <v>0.6025458675910295</v>
       </c>
       <c r="K10">
-        <v>0.8828779999999993</v>
+        <v>0.8272824394939546</v>
       </c>
       <c r="L10">
-        <v>0.8546549999999999</v>
+        <v>1.007105398875717</v>
       </c>
       <c r="M10">
-        <v>1.078295333333333</v>
+        <v>0.9785394308862604</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6899999999999999</v>
+        <v>0.9933438884412549</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.8805574828700983</v>
       </c>
       <c r="E11">
-        <v>1.51</v>
+        <v>1.047344888658173</v>
       </c>
       <c r="F11">
-        <v>0.6899999999999999</v>
+        <v>0.9933438884412549</v>
       </c>
       <c r="G11">
-        <v>0.26</v>
+        <v>0.9168840163964505</v>
       </c>
       <c r="H11">
-        <v>2.94</v>
+        <v>1.143854903952787</v>
       </c>
       <c r="I11">
-        <v>1.36</v>
+        <v>1.031188684351605</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.8805574828700983</v>
       </c>
       <c r="K11">
-        <v>0.805</v>
+        <v>0.9639511857641354</v>
       </c>
       <c r="L11">
-        <v>0.7474999999999999</v>
+        <v>0.9786475371026953</v>
       </c>
       <c r="M11">
-        <v>1.143333333333333</v>
+        <v>1.002195644111728</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8263879137280029</v>
+        <v>0.9925108790721635</v>
       </c>
       <c r="D12">
-        <v>0.4695855489024012</v>
+        <v>0.8815462107277154</v>
       </c>
       <c r="E12">
-        <v>1.295642868940795</v>
+        <v>1.047339437449253</v>
       </c>
       <c r="F12">
-        <v>0.8263879137280029</v>
+        <v>0.9925108790721635</v>
       </c>
       <c r="G12">
-        <v>0.5664575488000008</v>
+        <v>0.9173862341497929</v>
       </c>
       <c r="H12">
-        <v>2.107015674675212</v>
+        <v>1.143508101440162</v>
       </c>
       <c r="I12">
-        <v>1.203729755135997</v>
+        <v>1.030761335621283</v>
       </c>
       <c r="J12">
-        <v>0.4695855489024012</v>
+        <v>0.8815462107277154</v>
       </c>
       <c r="K12">
-        <v>0.8826142089215983</v>
+        <v>0.9644428240884841</v>
       </c>
       <c r="L12">
-        <v>0.8545010613248005</v>
+        <v>0.9784768515803239</v>
       </c>
       <c r="M12">
-        <v>1.078136551697068</v>
+        <v>1.002175366410062</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9957089400709754</v>
+        <v>0.9934469166709441</v>
       </c>
       <c r="D13">
-        <v>0.9980709158298052</v>
+        <v>0.8803512120821483</v>
       </c>
       <c r="E13">
-        <v>1.000374582478758</v>
+        <v>1.047368256941511</v>
       </c>
       <c r="F13">
-        <v>0.9957089400709754</v>
+        <v>0.9934469166709441</v>
       </c>
       <c r="G13">
-        <v>0.9958305039463997</v>
+        <v>0.9168159963610443</v>
       </c>
       <c r="H13">
-        <v>1.00115640246909</v>
+        <v>1.143335735184324</v>
       </c>
       <c r="I13">
-        <v>0.9987901497843226</v>
+        <v>1.031013480838639</v>
       </c>
       <c r="J13">
-        <v>0.9980709158298052</v>
+        <v>0.8803512120821483</v>
       </c>
       <c r="K13">
-        <v>0.9992227491542816</v>
+        <v>0.9638597345118298</v>
       </c>
       <c r="L13">
-        <v>0.9974658446126284</v>
+        <v>0.978653325591387</v>
       </c>
       <c r="M13">
-        <v>0.9983219157632252</v>
+        <v>1.002055266346435</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.967419753829643</v>
+        <v>0.8264320000000005</v>
       </c>
       <c r="D14">
-        <v>1.055795738000985</v>
+        <v>0.4700000000000004</v>
       </c>
       <c r="E14">
-        <v>0.9929893569424617</v>
+        <v>1.295755999999998</v>
       </c>
       <c r="F14">
-        <v>0.967419753829643</v>
+        <v>0.8264320000000005</v>
       </c>
       <c r="G14">
-        <v>1.024547616540342</v>
+        <v>0.5663559999999996</v>
       </c>
       <c r="H14">
-        <v>0.989985832573801</v>
+        <v>2.107623999999998</v>
       </c>
       <c r="I14">
-        <v>0.9866461243156752</v>
+        <v>1.203604</v>
       </c>
       <c r="J14">
-        <v>1.055795738000985</v>
+        <v>0.4700000000000004</v>
       </c>
       <c r="K14">
-        <v>1.024392547471723</v>
+        <v>0.8828779999999993</v>
       </c>
       <c r="L14">
-        <v>0.9959061506506832</v>
+        <v>0.8546549999999999</v>
       </c>
       <c r="M14">
-        <v>1.002897403700485</v>
+        <v>1.078295333333333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9765100825094638</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D15">
-        <v>1.160252217770952</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.9536619033252548</v>
+        <v>1.51</v>
       </c>
       <c r="F15">
-        <v>0.9765100825094638</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G15">
-        <v>1.087040054211242</v>
+        <v>0.26</v>
       </c>
       <c r="H15">
-        <v>0.8699926445119092</v>
+        <v>2.94</v>
       </c>
       <c r="I15">
-        <v>0.9544050439854842</v>
+        <v>1.36</v>
       </c>
       <c r="J15">
-        <v>1.160252217770952</v>
+        <v>0.1</v>
       </c>
       <c r="K15">
-        <v>1.056957060548104</v>
+        <v>0.805</v>
       </c>
       <c r="L15">
-        <v>1.016733571528784</v>
+        <v>0.7474999999999999</v>
       </c>
       <c r="M15">
-        <v>1.000310324385718</v>
+        <v>1.143333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.186928358257481</v>
+        <v>0.8263879137280029</v>
       </c>
       <c r="D16">
-        <v>0.6025458675910295</v>
+        <v>0.4695855489024012</v>
       </c>
       <c r="E16">
-        <v>1.05201901139688</v>
+        <v>1.295642868940795</v>
       </c>
       <c r="F16">
-        <v>1.186928358257481</v>
+        <v>0.8263879137280029</v>
       </c>
       <c r="G16">
-        <v>0.7990077946846026</v>
+        <v>0.5664575488000008</v>
       </c>
       <c r="H16">
-        <v>1.1312998136103</v>
+        <v>2.107015674675212</v>
       </c>
       <c r="I16">
-        <v>1.09943573977727</v>
+        <v>1.203729755135997</v>
       </c>
       <c r="J16">
-        <v>0.6025458675910295</v>
+        <v>0.4695855489024012</v>
       </c>
       <c r="K16">
-        <v>0.8272824394939546</v>
+        <v>0.8826142089215983</v>
       </c>
       <c r="L16">
-        <v>1.007105398875717</v>
+        <v>0.8545010613248005</v>
       </c>
       <c r="M16">
-        <v>0.9785394308862604</v>
+        <v>1.078136551697068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9957089400709754</v>
+      </c>
+      <c r="D17">
+        <v>0.9980709158298056</v>
+      </c>
+      <c r="E17">
+        <v>1.000374582478758</v>
+      </c>
+      <c r="F17">
+        <v>0.9957089400709754</v>
+      </c>
+      <c r="G17">
+        <v>0.9958305039463997</v>
+      </c>
+      <c r="H17">
+        <v>1.00115640246909</v>
+      </c>
+      <c r="I17">
+        <v>0.9987901497843227</v>
+      </c>
+      <c r="J17">
+        <v>0.9980709158298056</v>
+      </c>
+      <c r="K17">
+        <v>0.9992227491542817</v>
+      </c>
+      <c r="L17">
+        <v>0.9974658446126285</v>
+      </c>
+      <c r="M17">
+        <v>0.9983219157632252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.967419753829643</v>
+      </c>
+      <c r="D18">
+        <v>1.055795738000985</v>
+      </c>
+      <c r="E18">
+        <v>0.9929893569424617</v>
+      </c>
+      <c r="F18">
+        <v>0.967419753829643</v>
+      </c>
+      <c r="G18">
+        <v>1.024547616540342</v>
+      </c>
+      <c r="H18">
+        <v>0.989985832573801</v>
+      </c>
+      <c r="I18">
+        <v>0.9866461243156752</v>
+      </c>
+      <c r="J18">
+        <v>1.055795738000985</v>
+      </c>
+      <c r="K18">
+        <v>1.024392547471723</v>
+      </c>
+      <c r="L18">
+        <v>0.9959061506506832</v>
+      </c>
+      <c r="M18">
+        <v>1.002897403700485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9765100825094638</v>
+      </c>
+      <c r="D19">
+        <v>1.160252217770952</v>
+      </c>
+      <c r="E19">
+        <v>0.9536619033252548</v>
+      </c>
+      <c r="F19">
+        <v>0.9765100825094638</v>
+      </c>
+      <c r="G19">
+        <v>1.087040054211242</v>
+      </c>
+      <c r="H19">
+        <v>0.8699926445119092</v>
+      </c>
+      <c r="I19">
+        <v>0.9544050439854842</v>
+      </c>
+      <c r="J19">
+        <v>1.160252217770952</v>
+      </c>
+      <c r="K19">
+        <v>1.056957060548104</v>
+      </c>
+      <c r="L19">
+        <v>1.016733571528784</v>
+      </c>
+      <c r="M19">
+        <v>1.000310324385718</v>
       </c>
     </row>
   </sheetData>
